--- a/data/evaluation/evaluation_North_Spring_Beets.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Beets.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6479.5739747032</v>
+        <v>6382.231940096694</v>
       </c>
       <c r="C4" t="n">
-        <v>100264478.806521</v>
+        <v>94107343.80366734</v>
       </c>
       <c r="D4" t="n">
-        <v>10013.21520823961</v>
+        <v>9700.893969303414</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4090542819483334</v>
+        <v>-0.3225257571549573</v>
       </c>
     </row>
     <row r="5">
